--- a/1D-model/input/Tjele/Tjele daily increase and removal amount.xlsx
+++ b/1D-model/input/Tjele/Tjele daily increase and removal amount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\AAFC\Project 10_STM\2_method\STM-and-1D-model\1D-model\input\Tjele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AC0F1-07C5-4C0A-B27A-F4FF87830BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469238A4-55F3-4C04-A497-0B876596677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H_level" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ESTIMATE DAILY INCREAE (m)</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>DAYs</t>
+  </si>
+  <si>
+    <t>Estimated days</t>
   </si>
 </sst>
 </file>
@@ -4553,13 +4556,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
@@ -4589,13 +4592,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -4925,20 +4928,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="7" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4954,11 +4957,14 @@
       <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>274</v>
       </c>
@@ -4981,20 +4987,24 @@
       <c r="G2">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <f>G2</f>
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>275</v>
       </c>
@@ -5017,22 +5027,26 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <f>G3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>C40-C41</f>
         <v>0.42999999999999972</v>
       </c>
-      <c r="K3">
-        <f>J3*F$13+F2*F$13</f>
+      <c r="L3">
+        <f>K3*F$13+F2*F$13</f>
         <v>474.15307692307664</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>276</v>
       </c>
@@ -5053,24 +5067,29 @@
         <v>3.9553913519430758E-2</v>
       </c>
       <c r="G4">
+        <f>B75-B48+1</f>
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <f>B75-SUM(H$2:H3)</f>
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>C43-C48</f>
         <v>1.4799999999999998</v>
       </c>
-      <c r="K4">
-        <f>J4*F$13+F3*F$13*5</f>
+      <c r="L4">
+        <f>K4*F$13+F3*F$13*5</f>
         <v>3822.5899999999983</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>277</v>
       </c>
@@ -5091,24 +5110,29 @@
         <v>3.0498556998556994E-2</v>
       </c>
       <c r="G5">
+        <f>B132-B78+1</f>
         <v>55</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <f>B132-SUM(H$2:H4)</f>
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>C75-C78</f>
         <v>0.89000000000000012</v>
       </c>
-      <c r="K5">
-        <f>J5*F$13+F4*F$13*3</f>
+      <c r="L5">
+        <f>K5*F$13+F4*F$13*3</f>
         <v>1026.8176518883415</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>278</v>
       </c>
@@ -5129,24 +5153,29 @@
         <v>5.4675324675324675E-2</v>
       </c>
       <c r="G6">
+        <f>B156-B135+1</f>
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <f>B156-SUM(H$2:H5)</f>
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>C132-C135</f>
         <v>1.4400000000000004</v>
       </c>
-      <c r="K6">
-        <f>J6*F$13+F5*F$13*3</f>
+      <c r="L6">
+        <f>K6*F$13+F5*F$13*3</f>
         <v>1559.0625930735932</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>279</v>
       </c>
@@ -5167,24 +5196,29 @@
         <v>3.0962406015037598E-2</v>
       </c>
       <c r="G7">
+        <f>B197-B178+1</f>
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <f>B197-SUM(H$2:H6)</f>
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>C156-C178</f>
         <v>2.7</v>
       </c>
-      <c r="K7">
-        <f>J7*F$13+F6*F$13*10</f>
+      <c r="L7">
+        <f>K7*F$13+F6*F$13*10</f>
         <v>3305.1948051948057</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>280</v>
       </c>
@@ -5207,22 +5241,26 @@
       <c r="G8">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <f>B249-SUM(H$2:H7)</f>
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>C197-C201</f>
         <v>1.4899999999999998</v>
       </c>
-      <c r="K8">
-        <f>J8*F$13+F7*F$13*4</f>
+      <c r="L8">
+        <f>K8*F$13+F7*F$13*4</f>
         <v>1642.8989172932329</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>281</v>
       </c>
@@ -5242,24 +5280,29 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+        <f>A316-A249</f>
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <f>B316-SUM(H$2:H8)</f>
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>C278-C280</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="K9">
-        <f>J9*F$13+F8*F$13*2</f>
+      <c r="L9">
+        <f>K9*F$13+F8*F$13*2</f>
         <v>210.05495102040811</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>282</v>
       </c>
@@ -5282,22 +5325,26 @@
       <c r="G10" s="2">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <f>B367-SUM(H$2:H9)</f>
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>C313-C316</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="K10">
-        <f>J10*F$13</f>
+      <c r="L10">
+        <f>K10*F$13</f>
         <v>295.22000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>283</v>
       </c>
@@ -5310,8 +5357,12 @@
       <c r="D11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <f>SUM(H2:H10)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>284</v>
       </c>
@@ -5329,17 +5380,17 @@
       </c>
       <c r="F12">
         <f>SUMPRODUCT(F2:F10,G2:G10)/SUM(G2:G10)</f>
-        <v>2.9200947183216634E-2</v>
-      </c>
-      <c r="I12" t="s">
+        <v>2.3360757746573306E-2</v>
+      </c>
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12">
-        <f>SUM(K3:K10)</f>
+      <c r="L12">
+        <f>SUM(L3:L10)</f>
         <v>12335.991995393455</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>285</v>
       </c>
@@ -5359,7 +5410,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>286</v>
       </c>
@@ -5377,10 +5428,10 @@
       </c>
       <c r="F14" s="1">
         <f>F12*F13</f>
-        <v>29.726564232514534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23.781251386011625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>287</v>
       </c>
@@ -5398,10 +5449,10 @@
       </c>
       <c r="F15" s="2">
         <f>F12*F13*366</f>
-        <v>10879.922509100319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8703.9380072802542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>288</v>
       </c>

--- a/1D-model/input/Tjele/Tjele daily increase and removal amount.xlsx
+++ b/1D-model/input/Tjele/Tjele daily increase and removal amount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\AAFC\Project 10_STM\2_method\STM-and-1D-model\1D-model\input\Tjele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469238A4-55F3-4C04-A497-0B876596677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D5C93-3432-4E5C-96C4-954CAC48971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="H_level" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">H_level!$A$2:$A$367</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">H_level!$C$2:$C$367</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>ESTIMATE DAILY INCREAE (m)</t>
   </si>
@@ -127,6 +131,9 @@
   </si>
   <si>
     <t>Estimated days</t>
+  </si>
+  <si>
+    <t>rearranged days (because the start date is Oct 1</t>
   </si>
 </sst>
 </file>
@@ -720,16 +727,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -751,2502 +756,2219 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H_level!$A$95:$A$366</c:f>
+              <c:f>H_level!$A$2:$A$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="94">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="95">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="96">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="97">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="98">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="99">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="100">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="101">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="102">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="103">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="104">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="105">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="106">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="107">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="108">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="109">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="110">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="111">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="112">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="113">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="114">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="115">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="116">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="117">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="118">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="119">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="120">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="121">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="122">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="123">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="124">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="125">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="126">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="127">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="128">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="129">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="130">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="131">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="132">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="133">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="134">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="135">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="136">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="137">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="138">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="139">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="140">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="141">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="142">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="143">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="144">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="145">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="146">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="147">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="148">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="149">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="150">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="151">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="152">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="153">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="154">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="155">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="156">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="157">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="158">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="159">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="160">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="161">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="162">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="163">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="164">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="165">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="166">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="167">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="168">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="169">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="170">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="171">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="172">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="173">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="174">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="175">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="176">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="177">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="178">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="179">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="180">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="181">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="182">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="183">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="184">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="185">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="186">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="187">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="188">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="189">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="190">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="191">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="192">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="193">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="194">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="195">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="196">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="197">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="198">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="199">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="200">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="201">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="202">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="203">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="204">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="205">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="206">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="207">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="208">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="209">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="210">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="211">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="212">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="213">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="214">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="215">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="216">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="217">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="218">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="219">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="220">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="221">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="222">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="223">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="224">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="225">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="226">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="227">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="228">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="229">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="230">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="231">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="232">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="233">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="234">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="235">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="236">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="237">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="238">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="239">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="240">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="241">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="242">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="243">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="244">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="245">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="246">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="247">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="248">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="249">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="250">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="251">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="252">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="253">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="254">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="255">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="256">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="257">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="258">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="259">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="260">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="261">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="262">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="263">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="264">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="265">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="266">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="267">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="268">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="269">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="270">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="271">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="272">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="273">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="274">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="275">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="276">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="277">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="278">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="279">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="280">
                   <c:v>188</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="281">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="282">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="283">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="284">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="285">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="286">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="287">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="288">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="289">
                   <c:v>197</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="290">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="291">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="292">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="293">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="294">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="295">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="296">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="297">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="298">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="299">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="300">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="301">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="302">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="303">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="304">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="305">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="306">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="307">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="308">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="309">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="310">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="311">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="312">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="313">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="314">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="315">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="316">
                   <c:v>224</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="317">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="318">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="319">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="320">
                   <c:v>228</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="321">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="322">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="323">
                   <c:v>231</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="324">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="325">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="326">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="327">
                   <c:v>235</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="328">
                   <c:v>236</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="329">
                   <c:v>237</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="330">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="331">
                   <c:v>239</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="332">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="333">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="334">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="335">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="336">
                   <c:v>244</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="337">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="338">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="339">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="340">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="341">
                   <c:v>249</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="342">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="343">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="344">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="345">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="346">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="347">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="348">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="349">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="350">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="351">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="352">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="353">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="354">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="355">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="356">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="357">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="358">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="359">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="360">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="361">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="362">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="363">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="364">
                   <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H_level!$C$95:$C$366</c:f>
+              <c:f>H_level!$C$2:$C$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="272"/>
+                <c:ptCount val="366"/>
                 <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>3.26</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="94">
                   <c:v>3.23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="95">
                   <c:v>3.17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="96">
                   <c:v>3.16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="97">
                   <c:v>3.17</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="98">
                   <c:v>3.49</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="99">
                   <c:v>3.36</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="100">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="101">
                   <c:v>3.42</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="102">
                   <c:v>3.44</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="103">
                   <c:v>3.45</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="104">
                   <c:v>3.53</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="105">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="106">
                   <c:v>3.77</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="107">
                   <c:v>3.51</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="108">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="109">
                   <c:v>3.58</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="110">
                   <c:v>3.65</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="111">
                   <c:v>3.68</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="112">
                   <c:v>3.64</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="113">
                   <c:v>3.69</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="114">
                   <c:v>3.71</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="115">
                   <c:v>3.82</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="116">
                   <c:v>3.84</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="117">
                   <c:v>3.85</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="118">
                   <c:v>3.87</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="119">
                   <c:v>3.91</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="120">
                   <c:v>3.91</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="121">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="122">
                   <c:v>4.01</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="123">
                   <c:v>3.99</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="124">
                   <c:v>4.05</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="125">
                   <c:v>4.0599999999999996</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="126">
                   <c:v>4.12</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="127">
                   <c:v>3.81</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="128">
                   <c:v>4.1100000000000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="129">
                   <c:v>4.17</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="130">
                   <c:v>4.2</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="131">
                   <c:v>3.81</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="132">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="133">
                   <c:v>2.76</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="134">
                   <c:v>3.22</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="135">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="136">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="137">
                   <c:v>3.77</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="138">
                   <c:v>4.3</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="139">
                   <c:v>4.3</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="140">
                   <c:v>4.24</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="141">
                   <c:v>4.21</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="142">
                   <c:v>4.1399999999999997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="143">
                   <c:v>4.2300000000000004</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="144">
                   <c:v>4.49</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="145">
                   <c:v>4.49</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="146">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="147">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="148">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="149">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="150">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="151">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="152">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="153">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="154">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="155">
                   <c:v>4.45</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="156">
                   <c:v>4.29</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="157">
                   <c:v>4.29</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="158">
                   <c:v>4.29</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="159">
                   <c:v>4.18</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="160">
                   <c:v>3.77</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="161">
                   <c:v>3.38</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="162">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="163">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="164">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="165">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="166">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="167">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="168">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="169">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="170">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="171">
                   <c:v>2.1800000000000002</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="172">
                   <c:v>1.95</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="173">
                   <c:v>1.94</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="174">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="175">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="176">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="177">
                   <c:v>1.87</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="178">
                   <c:v>1.88</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="179">
                   <c:v>1.96</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="180">
                   <c:v>1.97</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="181">
                   <c:v>2.04</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="182">
                   <c:v>2.09</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="183">
                   <c:v>2.09</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="184">
                   <c:v>2.12</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="185">
                   <c:v>2.13</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="186">
                   <c:v>2.13</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="187">
                   <c:v>2.2400000000000002</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="188">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="189">
                   <c:v>2.31</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="190">
                   <c:v>2.31</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="191">
                   <c:v>2.38</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="192">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="193">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="194">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="195">
                   <c:v>2.2599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="196">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="197">
                   <c:v>1.31</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="198">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="199">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="200">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="201">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="202">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="203">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="204">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="205">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="206">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="207">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="208">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="209">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="210">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="211">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="212">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="213">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="214">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="215">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="216">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="217">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="218">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="219">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="220">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="221">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="222">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="223">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="224">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="225">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="226">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="227">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="228">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="229">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="230">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="231">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="232">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="233">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="234">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="235">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="236">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="237">
                   <c:v>0.94</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="238">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="239">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="240">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="241">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="242">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="243">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="244">
                   <c:v>1.1499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="245">
                   <c:v>1.21</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="246">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="247">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="248">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="249">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="250">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="251">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="252">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="253">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="254">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="255">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="256">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="257">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="258">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="259">
                   <c:v>1.17</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="260">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="261">
                   <c:v>1.17</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="262">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="263">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="264">
                   <c:v>1.19</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="265">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="266">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="267">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="268">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="269">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="270">
                   <c:v>1.17</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="271">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="272">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="273">
                   <c:v>1.17</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="274">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="275">
                   <c:v>1.18</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="276">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="277">
                   <c:v>1.1499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="278">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="279">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="280">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="281">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="282">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="283">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="284">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="285">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="286">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="287">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="288">
                   <c:v>1.0900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="289">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="290">
                   <c:v>1.0900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="291">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="292">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="293">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="294">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="295">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="296">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="297">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="298">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="299">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="300">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="301">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="302">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="303">
                   <c:v>1.08</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="304">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="305">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="306">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="307">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="308">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="309">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="310">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="311">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="312">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="313">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="314">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="315">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="316">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="317">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="318">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="319">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="320">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="321">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="322">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="323">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="324">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="325">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="326">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="327">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="328">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="329">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="330">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="331">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="332">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="333">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="334">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="335">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="336">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="337">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="338">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="339">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="340">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="341">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="342">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="343">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="344">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="345">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="346">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="347">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="348">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="349">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="350">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="351">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="352">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="353">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="354">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="355">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="356">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="357">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="358">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="359">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="360">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="361">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="362">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="363">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="364">
                   <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1F8-4F05-898B-CD29C5C813D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="168436815"/>
-        <c:axId val="233689871"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="168436815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="233689871"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="233689871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="168436815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>H_level!$A$2:$A$94</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>H_level!$C$2:$C$94</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.29</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5174-4CC7-BE01-9A16404E83FA}"/>
@@ -3441,46 +3163,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4036,572 +3718,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4596B89-1569-19C7-8A8A-3BD9AC0F11A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4622,7 +3752,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4928,20 +4058,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L367"/>
+  <dimension ref="A1:N367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="7" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4958,13 +4088,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>274</v>
       </c>
@@ -4981,30 +4114,30 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>SLOPE(C2:C40,B2:B40)</f>
-        <v>3.5769230769230775E-2</v>
+        <f>(C40-C2)/(B40-B2)</f>
+        <v>4.8421052631578941E-2</v>
       </c>
       <c r="G2">
         <v>39</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>G2</f>
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>275</v>
       </c>
@@ -5021,32 +4154,32 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>SLOPE(C41:C43,B41:B43)</f>
+        <f>(C43-C41)/(B43-B41)</f>
         <v>0.45499999999999985</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>G3</f>
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <f>C40-C41</f>
         <v>0.42999999999999972</v>
       </c>
-      <c r="L3">
-        <f>K3*F$13+F2*F$13</f>
-        <v>474.15307692307664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <f>M3*F$13+F2*F$13</f>
+        <v>487.03263157894708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>276</v>
       </c>
@@ -5063,33 +4196,33 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>SLOPE(C48:C75,B48:B75)</f>
-        <v>3.9553913519430758E-2</v>
+        <f>(C75-C48)/(B75-B48)</f>
+        <v>6.777777777777777E-2</v>
       </c>
       <c r="G4">
         <f>B75-B48+1</f>
         <v>28</v>
       </c>
-      <c r="H4">
-        <f>B75-SUM(H$2:H3)</f>
+      <c r="I4">
+        <f>B75-SUM(I$2:I3)</f>
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f>C43-C48</f>
         <v>1.4799999999999998</v>
       </c>
-      <c r="L4">
-        <f>K4*F$13+F3*F$13*5</f>
+      <c r="N4">
+        <f>M4*F$13+F3*F$13*5</f>
         <v>3822.5899999999983</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>277</v>
       </c>
@@ -5113,26 +4246,26 @@
         <f>B132-B78+1</f>
         <v>55</v>
       </c>
-      <c r="H5">
-        <f>B132-SUM(H$2:H4)</f>
+      <c r="I5">
+        <f>B132-SUM(I$2:I4)</f>
         <v>57</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f>C75-C78</f>
         <v>0.89000000000000012</v>
       </c>
-      <c r="L5">
-        <f>K5*F$13+F4*F$13*3</f>
-        <v>1026.8176518883415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>M5*F$13+F4*F$13*3</f>
+        <v>1113.0133333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>278</v>
       </c>
@@ -5156,26 +4289,26 @@
         <f>B156-B135+1</f>
         <v>22</v>
       </c>
-      <c r="H6">
-        <f>B156-SUM(H$2:H5)</f>
+      <c r="I6">
+        <f>B156-SUM(I$2:I5)</f>
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f>C132-C135</f>
         <v>1.4400000000000004</v>
       </c>
-      <c r="L6">
-        <f>K6*F$13+F5*F$13*3</f>
+      <c r="N6">
+        <f>M6*F$13+F5*F$13*3</f>
         <v>1559.0625930735932</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>279</v>
       </c>
@@ -5199,26 +4332,26 @@
         <f>B197-B178+1</f>
         <v>20</v>
       </c>
-      <c r="H7">
-        <f>B197-SUM(H$2:H6)</f>
+      <c r="I7">
+        <f>B197-SUM(I$2:I6)</f>
         <v>41</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f>C156-C178</f>
         <v>2.7</v>
       </c>
-      <c r="L7">
-        <f>K7*F$13+F6*F$13*10</f>
+      <c r="N7">
+        <f>M7*F$13+F6*F$13*10</f>
         <v>3305.1948051948057</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>280</v>
       </c>
@@ -5241,26 +4374,26 @@
       <c r="G8">
         <v>49</v>
       </c>
-      <c r="H8">
-        <f>B249-SUM(H$2:H7)</f>
+      <c r="I8">
+        <f>B249-SUM(I$2:I7)</f>
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>C197-C201</f>
         <v>1.4899999999999998</v>
       </c>
-      <c r="L8">
-        <f>K8*F$13+F7*F$13*4</f>
+      <c r="N8">
+        <f>M8*F$13+F7*F$13*4</f>
         <v>1642.8989172932329</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>281</v>
       </c>
@@ -5283,26 +4416,26 @@
         <f>A316-A249</f>
         <v>67</v>
       </c>
-      <c r="H9">
-        <f>B316-SUM(H$2:H8)</f>
+      <c r="I9">
+        <f>B316-SUM(I$2:I8)</f>
         <v>67</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f>C278-C280</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="L9">
-        <f>K9*F$13+F8*F$13*2</f>
+      <c r="N9">
+        <f>M9*F$13+F8*F$13*2</f>
         <v>210.05495102040811</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>282</v>
       </c>
@@ -5325,26 +4458,26 @@
       <c r="G10" s="2">
         <v>52</v>
       </c>
-      <c r="H10">
-        <f>B367-SUM(H$2:H9)</f>
+      <c r="I10">
+        <f>B367-SUM(I$2:I9)</f>
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f>C313-C316</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="L10">
-        <f>K10*F$13</f>
+      <c r="N10">
+        <f>M10*F$13</f>
         <v>295.22000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>283</v>
       </c>
@@ -5357,12 +4490,12 @@
       <c r="D11">
         <v>2020</v>
       </c>
-      <c r="H11">
-        <f>SUM(H2:H10)</f>
+      <c r="I11">
+        <f>SUM(I2:I10)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>284</v>
       </c>
@@ -5380,17 +4513,17 @@
       </c>
       <c r="F12">
         <f>SUMPRODUCT(F2:F10,G2:G10)/SUM(G2:G10)</f>
-        <v>2.3360757746573306E-2</v>
-      </c>
-      <c r="J12" t="s">
+        <v>2.7192665961096572E-2</v>
+      </c>
+      <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="L12">
-        <f>SUM(L3:L10)</f>
-        <v>12335.991995393455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <f>SUM(N3:N10)</f>
+        <v>12435.067231494317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>285</v>
       </c>
@@ -5410,7 +4543,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>286</v>
       </c>
@@ -5428,10 +4561,10 @@
       </c>
       <c r="F14" s="1">
         <f>F12*F13</f>
-        <v>23.781251386011625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>27.682133948396309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>287</v>
       </c>
@@ -5449,10 +4582,10 @@
       </c>
       <c r="F15" s="2">
         <f>F12*F13*366</f>
-        <v>8703.9380072802542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10131.66102511305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>288</v>
       </c>
